--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D197CD01-5CC4-415E-9A77-5C14EB989466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1BE15A-B0FA-4F15-B416-EAEC7D6DC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2543" yWindow="2543" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>www.walmart.com</t>
+  </si>
+  <si>
+    <t>www.netflix.com</t>
+  </si>
+  <si>
+    <t>Netflix</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -488,6 +494,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{51FBDDB6-E697-4B8D-988E-C7675CDB5717}"/>
@@ -495,6 +509,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{E0D7948B-F769-4EC4-885B-FC09F8A8DFB2}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E0B59CB3-83B9-4FDA-A409-EF519A01CA49}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{21564785-48F2-4B74-A029-F3203849E978}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{EDFFE1A1-782D-40C6-88D8-6606289F7A19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1BE15A-B0FA-4F15-B416-EAEC7D6DC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FDD9EC-32D6-42B5-B979-C226E5F3625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>www.walmart.com</t>
   </si>
   <si>
+    <t>Netflix</t>
+  </si>
+  <si>
     <t>www.netflix.com</t>
-  </si>
-  <si>
-    <t>Netflix</t>
   </si>
 </sst>
 </file>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -495,11 +495,14 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +512,6 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{E0D7948B-F769-4EC4-885B-FC09F8A8DFB2}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E0B59CB3-83B9-4FDA-A409-EF519A01CA49}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{21564785-48F2-4B74-A029-F3203849E978}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{EDFFE1A1-782D-40C6-88D8-6606289F7A19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FDD9EC-32D6-42B5-B979-C226E5F3625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB0EA5-F165-4FAE-8FE7-186B05910A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="9795" yWindow="2970" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,55 +34,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
   <si>
-    <t>web address</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>www.amazon.com</t>
-  </si>
-  <si>
     <t>Uber Eats</t>
   </si>
   <si>
-    <t>www.ubereats.com</t>
-  </si>
-  <si>
     <t>carvana</t>
   </si>
   <si>
-    <t>www.carvana.com</t>
-  </si>
-  <si>
     <t>Best Buy</t>
   </si>
   <si>
-    <t>www.bestbuy.com</t>
-  </si>
-  <si>
     <t>Walmart</t>
   </si>
   <si>
-    <t>www.walmart.com</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>www.netflix.com</t>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>Stock1</t>
+  </si>
+  <si>
+    <t>Price1</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Price2</t>
+  </si>
+  <si>
+    <t>Stock2</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Price3</t>
+  </si>
+  <si>
+    <t>Stock3</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>24..99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +106,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,9 +138,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,81 +460,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{51FBDDB6-E697-4B8D-988E-C7675CDB5717}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B5F3A1DA-E193-4FA4-8679-132483AE5D0F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E0D7948B-F769-4EC4-885B-FC09F8A8DFB2}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E0B59CB3-83B9-4FDA-A409-EF519A01CA49}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{21564785-48F2-4B74-A029-F3203849E978}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB0EA5-F165-4FAE-8FE7-186B05910A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658928-1D22-4E3A-9E58-389027770312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="2970" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>24..99</t>
+  </si>
+  <si>
+    <t>InandOut</t>
+  </si>
+  <si>
+    <t>www.inandout.com</t>
   </si>
 </sst>
 </file>
@@ -460,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,7 +520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -528,36 +534,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658928-1D22-4E3A-9E58-389027770312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B2CB8-4F8B-46D9-85AE-D3DC6F63D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
@@ -48,33 +49,15 @@
     <t>carvana</t>
   </si>
   <si>
-    <t>Best Buy</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>Item1</t>
-  </si>
-  <si>
     <t>Stock1</t>
   </si>
   <si>
-    <t>Price1</t>
-  </si>
-  <si>
-    <t>Item2</t>
-  </si>
-  <si>
     <t>Price2</t>
   </si>
   <si>
     <t>Stock2</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Price3</t>
   </si>
   <si>
@@ -87,20 +70,87 @@
     <t>Watch</t>
   </si>
   <si>
-    <t>24..99</t>
-  </si>
-  <si>
-    <t>InandOut</t>
-  </si>
-  <si>
-    <t>www.inandout.com</t>
+    <t>car</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Bikes</t>
+  </si>
+  <si>
+    <t>iPhone13</t>
+  </si>
+  <si>
+    <t>Beef Steak</t>
+  </si>
+  <si>
+    <t>Red Wine</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>6,45,17</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>www.Amazon.com</t>
+  </si>
+  <si>
+    <t>www.ubereats.com</t>
+  </si>
+  <si>
+    <t>www.carvana.com</t>
+  </si>
+  <si>
+    <t>166 The Ebarcadero, San Francisco, CA, 94141</t>
+  </si>
+  <si>
+    <t>Pillow Case</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>$1,99.99</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemName2</t>
+  </si>
+  <si>
+    <t>ItemName3</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Final Price</t>
+  </si>
+  <si>
+    <t>Original Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +168,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFDD0055"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,19 +224,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -466,115 +570,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="3"/>
+    <col min="4" max="4" width="13.46484375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="4"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="5"/>
+    <col min="12" max="12" width="9.06640625" style="4"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="5"/>
+    <col min="16" max="16" width="13.86328125" customWidth="1"/>
+    <col min="17" max="17" width="9.06640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>D2-(E2*D2)</f>
+        <v>32.463849000000003</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="4">
+        <v>150</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="5">
+        <v>600.99</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.99</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="10">
+        <f>D3-(E3*D3)</f>
+        <v>4.7404999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5">
+        <v>13.99</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7990.95</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="10">
+        <f>D4-(E4*D4)</f>
+        <v>6792.3074999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5">
+        <v>9000</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10.14</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <f>D5-(E5*D5)</f>
+        <v>9.8864999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.47</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{789D7D1D-1A78-481C-9DF2-2295465C5D5A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{64C48175-47EE-408B-B065-FA9B6328519A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{82B824F8-C06F-4D4E-AD9D-12AF4B1B0541}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE021577-FBF3-4041-9507-118CDDC93DC0}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B2CB8-4F8B-46D9-85AE-D3DC6F63D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E053DC63-78A0-42FA-A5BF-6EF658D46E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>Original Price</t>
+  </si>
+  <si>
+    <t>ItemName1</t>
+  </si>
+  <si>
+    <t>Price1</t>
+  </si>
+  <si>
+    <t>Discout3</t>
+  </si>
+  <si>
+    <t>FinalPrice3</t>
+  </si>
+  <si>
+    <t>Final Price2</t>
+  </si>
+  <si>
+    <t>Discount2</t>
+  </si>
+  <si>
+    <t>Discount1</t>
+  </si>
+  <si>
+    <t>Final Price1</t>
   </si>
 </sst>
 </file>
@@ -570,30 +594,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="3"/>
-    <col min="4" max="4" width="13.46484375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="5"/>
-    <col min="12" max="12" width="9.06640625" style="4"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="5"/>
-    <col min="16" max="16" width="13.86328125" customWidth="1"/>
-    <col min="17" max="17" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9" style="5"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,37 +640,49 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -696,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -746,7 +782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -796,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -846,10 +882,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
     </row>
   </sheetData>
@@ -866,20 +902,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE021577-FBF3-4041-9507-118CDDC93DC0}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,22 +926,28 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658928-1D22-4E3A-9E58-389027770312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E2F45-1E6A-4C8D-A51F-716664B60594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="698" yWindow="3098" windowWidth="14400" windowHeight="8272" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" activeTab="2" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
+    <sheet name="Walmart" sheetId="2" r:id="rId2"/>
+    <sheet name="Target" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,32 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Vendor </t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Uber Eats</t>
-  </si>
-  <si>
-    <t>carvana</t>
-  </si>
-  <si>
-    <t>Best Buy</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Item1</t>
   </si>
   <si>
-    <t>Stock1</t>
-  </si>
-  <si>
     <t>Price1</t>
   </si>
   <si>
@@ -69,31 +50,55 @@
     <t>Price2</t>
   </si>
   <si>
-    <t>Stock2</t>
-  </si>
-  <si>
     <t>Item3</t>
   </si>
   <si>
     <t>Price3</t>
   </si>
   <si>
-    <t>Stock3</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
     <t>Watch</t>
   </si>
   <si>
-    <t>24..99</t>
-  </si>
-  <si>
-    <t>InandOut</t>
-  </si>
-  <si>
-    <t>www.inandout.com</t>
+    <t>Qty1</t>
+  </si>
+  <si>
+    <t>Discount1</t>
+  </si>
+  <si>
+    <t>Qty2</t>
+  </si>
+  <si>
+    <t>Discount2</t>
+  </si>
+  <si>
+    <t>Qty3</t>
+  </si>
+  <si>
+    <t>Discount3</t>
+  </si>
+  <si>
+    <t>Towel</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Camera</t>
   </si>
 </sst>
 </file>
@@ -466,115 +471,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C2" s="3">
+        <v>29.99</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="K2">
+        <v>85</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90A4268-83BB-4301-A437-8A99F64E16FD}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>3.99</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>9.99</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB4556-605C-42A1-AA94-AF1977A4A82E}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>2.99</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2.99</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B2CB8-4F8B-46D9-85AE-D3DC6F63D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61D405-4AA1-4112-97B0-CD66A328B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
@@ -52,15 +52,9 @@
     <t>Stock1</t>
   </si>
   <si>
-    <t>Price2</t>
-  </si>
-  <si>
     <t>Stock2</t>
   </si>
   <si>
-    <t>Price3</t>
-  </si>
-  <si>
     <t>Stock3</t>
   </si>
   <si>
@@ -115,31 +109,79 @@
     <t>166 The Ebarcadero, San Francisco, CA, 94141</t>
   </si>
   <si>
-    <t>Pillow Case</t>
-  </si>
-  <si>
-    <t>Carrots</t>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemName2</t>
+  </si>
+  <si>
+    <t>ItemName3</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Final Price</t>
+  </si>
+  <si>
+    <t>Original Price</t>
+  </si>
+  <si>
+    <t>VendorEmail</t>
+  </si>
+  <si>
+    <t>ubereats@outllok.com</t>
+  </si>
+  <si>
+    <t>carvanacars@outlook.com</t>
+  </si>
+  <si>
+    <t>targetshooper@gmail.com</t>
+  </si>
+  <si>
+    <t>amazonbuy@gmail.com</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Baby Yoda</t>
+  </si>
+  <si>
+    <t>Original Price2</t>
+  </si>
+  <si>
+    <t>Original Price3</t>
+  </si>
+  <si>
+    <t>Discount2</t>
+  </si>
+  <si>
+    <t>Final Price2</t>
+  </si>
+  <si>
+    <t>Discount3</t>
+  </si>
+  <si>
+    <t>Final Price3</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>www.walmart.com</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>1,99.99</t>
+  </si>
+  <si>
+    <t>$6,45,17</t>
   </si>
   <si>
     <t>$1,99.99</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>ItemName2</t>
-  </si>
-  <si>
-    <t>ItemName3</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Final Price</t>
-  </si>
-  <si>
-    <t>Original Price</t>
   </si>
 </sst>
 </file>
@@ -193,18 +235,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFDD0055"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -243,15 +285,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -570,96 +622,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.73046875" customWidth="1"/>
     <col min="2" max="2" width="37.796875" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" style="3"/>
     <col min="4" max="4" width="13.46484375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="4"/>
+    <col min="6" max="6" width="11.1328125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.06640625" style="4"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="5"/>
+    <col min="9" max="9" width="12.9296875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="9"/>
+    <col min="11" max="11" width="9.06640625" style="5"/>
     <col min="12" max="12" width="9.06640625" style="4"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="5"/>
-    <col min="16" max="16" width="13.86328125" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="10"/>
+    <col min="16" max="16" width="13.86328125" style="5" customWidth="1"/>
     <col min="17" max="17" width="9.06640625" style="4"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>33</v>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6">
         <v>33.99</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="F2" s="11">
@@ -670,49 +730,57 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L2" s="4">
         <v>150</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="5">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8">
         <v>600.99</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="10">
         <v>0</v>
       </c>
-      <c r="P2" s="8"/>
+      <c r="P2" s="5">
+        <f>N2-(O2*N2)</f>
+        <v>600.99</v>
+      </c>
       <c r="Q2" s="4">
         <v>13</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6">
         <v>4.99</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10">
         <v>0.05</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="12">
         <f>D3-(E3*D3)</f>
         <v>4.7404999999999999</v>
       </c>
@@ -720,49 +788,58 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="5">
         <v>13.99</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="10">
         <v>0.15</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="5">
+        <f>I3-(J3*I3)</f>
+        <v>11.891500000000001</v>
+      </c>
       <c r="L3" s="4">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="5">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8">
         <v>8.5</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="10">
         <v>0.11</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="5">
+        <f>N3-(O3*N3)</f>
+        <v>7.5649999999999995</v>
+      </c>
       <c r="Q3" s="4">
         <v>60</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6">
         <v>7990.95</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>0.15</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <f>D4-(E4*D4)</f>
         <v>6792.3074999999999</v>
       </c>
@@ -770,49 +847,57 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="5">
         <v>9000</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="10">
         <v>0.25</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="5">
+        <f>I4-(J4*I4)</f>
+        <v>6750</v>
+      </c>
       <c r="L4" s="4">
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="7">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="P4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="Q4" s="4">
         <v>15</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6">
         <v>10.14</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <f>D5-(E5*D5)</f>
         <v>9.8864999999999998</v>
       </c>
@@ -820,36 +905,45 @@
         <v>500</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I5" s="5">
         <v>5.47</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <v>0.03</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="5">
+        <f>I5-(J5*I5)</f>
+        <v>5.3058999999999994</v>
+      </c>
       <c r="L5" s="4">
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1.27</v>
-      </c>
-      <c r="O5" s="8">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8">
+        <v>11.27</v>
+      </c>
+      <c r="O5" s="10">
         <v>0.02</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="5">
+        <f>N5-(O5*N5)</f>
+        <v>11.044599999999999</v>
+      </c>
       <c r="Q5" s="4">
         <v>41</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C7" s="2"/>
     </row>
   </sheetData>
@@ -858,58 +952,109 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{789D7D1D-1A78-481C-9DF2-2295465C5D5A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{64C48175-47EE-408B-B065-FA9B6328519A}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{82B824F8-C06F-4D4E-AD9D-12AF4B1B0541}"/>
+    <hyperlink ref="R3" r:id="rId4" xr:uid="{7AB694C8-8D53-4DD1-A585-74AD511EE2C9}"/>
+    <hyperlink ref="R4" r:id="rId5" xr:uid="{78861D53-23E1-4960-8374-45CCA96A832D}"/>
+    <hyperlink ref="R5" r:id="rId6" xr:uid="{00B415CC-5C9C-404C-B1CE-7644EF376960}"/>
+    <hyperlink ref="R2" r:id="rId7" xr:uid="{2A205147-F2C2-4819-A69A-FF234A50A8CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE021577-FBF3-4041-9507-118CDDC93DC0}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C426B5A-CDEC-4C88-9535-035658D28849}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="15.06640625" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.9296875" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" customWidth="1"/>
+    <col min="18" max="18" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E2F45-1E6A-4C8D-A51F-716664B60594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57521F0-35AC-47BD-8B60-5282736EA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="-120" windowWidth="27615" windowHeight="16440" activeTab="2" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="10995" yWindow="3240" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB4556-605C-42A1-AA94-AF1977A4A82E}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61D405-4AA1-4112-97B0-CD66A328B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08693BA4-552B-46E2-92BC-3ABE98C5ECD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t xml:space="preserve">Vendor </t>
   </si>
@@ -46,18 +46,6 @@
     <t>Uber Eats</t>
   </si>
   <si>
-    <t>carvana</t>
-  </si>
-  <si>
-    <t>Stock1</t>
-  </si>
-  <si>
-    <t>Stock2</t>
-  </si>
-  <si>
-    <t>Stock3</t>
-  </si>
-  <si>
     <t>Burger</t>
   </si>
   <si>
@@ -73,12 +61,6 @@
     <t>Flowers</t>
   </si>
   <si>
-    <t>Bikes</t>
-  </si>
-  <si>
-    <t>iPhone13</t>
-  </si>
-  <si>
     <t>Beef Steak</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>SUV</t>
   </si>
   <si>
-    <t>6,45,17</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -112,18 +91,9 @@
     <t>ItemName</t>
   </si>
   <si>
-    <t>ItemName2</t>
-  </si>
-  <si>
-    <t>ItemName3</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>Final Price</t>
-  </si>
-  <si>
     <t>Original Price</t>
   </si>
   <si>
@@ -148,40 +118,31 @@
     <t>Baby Yoda</t>
   </si>
   <si>
-    <t>Original Price2</t>
-  </si>
-  <si>
-    <t>Original Price3</t>
-  </si>
-  <si>
-    <t>Discount2</t>
-  </si>
-  <si>
-    <t>Final Price2</t>
-  </si>
-  <si>
-    <t>Discount3</t>
-  </si>
-  <si>
-    <t>Final Price3</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>www.walmart.com</t>
-  </si>
-  <si>
-    <t>Boots</t>
-  </si>
-  <si>
-    <t>1,99.99</t>
-  </si>
-  <si>
     <t>$6,45,17</t>
   </si>
   <si>
     <t>$1,99.99</t>
+  </si>
+  <si>
+    <t>iphone13</t>
+  </si>
+  <si>
+    <t>www.Ubereats.com</t>
+  </si>
+  <si>
+    <t>166 The Embarcadero, San Francisco, CA, 94141</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>FinalPrice</t>
+  </si>
+  <si>
+    <t>Bike</t>
   </si>
 </sst>
 </file>
@@ -192,7 +153,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +184,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,9 +239,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -297,13 +248,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -622,329 +576,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.73046875" customWidth="1"/>
     <col min="2" max="2" width="37.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="3"/>
+    <col min="3" max="3" width="12.265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.46484375" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.06640625" style="4"/>
-    <col min="6" max="6" width="11.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.9296875" customWidth="1"/>
     <col min="9" max="9" width="12.9296875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="9"/>
+    <col min="10" max="10" width="9.06640625" style="8"/>
     <col min="11" max="11" width="9.06640625" style="5"/>
     <col min="12" max="12" width="9.06640625" style="4"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="10"/>
+    <col min="14" max="14" width="13.19921875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="9"/>
     <col min="16" max="16" width="13.86328125" style="5" customWidth="1"/>
     <col min="17" max="17" width="9.06640625" style="4"/>
     <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6">
         <v>33.99</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f>D2-(E2*D2)</f>
         <v>32.463849000000003</v>
       </c>
       <c r="G2" s="4">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4">
-        <v>150</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="8">
-        <v>600.99</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <f>N2-(O2*N2)</f>
-        <v>600.99</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6">
         <v>4.99</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.05</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>D3-(E3*D3)</f>
         <v>4.7404999999999999</v>
       </c>
       <c r="G3" s="4">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5">
-        <v>13.99</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="K3" s="5">
-        <f>I3-(J3*I3)</f>
-        <v>11.891500000000001</v>
-      </c>
-      <c r="L3" s="4">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="P3" s="5">
-        <f>N3-(O3*N3)</f>
-        <v>7.5649999999999995</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>60</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>7990.95</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.15</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>D4-(E4*D4)</f>
         <v>6792.3074999999999</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5">
-        <v>9000</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="K4" s="5">
-        <f>I4-(J4*I4)</f>
-        <v>6750</v>
-      </c>
-      <c r="L4" s="4">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>15</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6">
         <v>10.14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>D5-(E5*D5)</f>
         <v>9.8864999999999998</v>
       </c>
       <c r="G5" s="4">
         <v>500</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6">
+        <v>199.99</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4">
+        <v>150</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>13.99</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7-(E7*D7)</f>
+        <v>11.891500000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8-(E8*D8)</f>
+        <v>6750</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5">
         <v>5.47</v>
       </c>
-      <c r="J5" s="10">
+      <c r="E9" s="9">
         <v>0.03</v>
       </c>
-      <c r="K5" s="5">
-        <f>I5-(J5*I5)</f>
+      <c r="F9" s="5">
+        <f>D9-(E9*D9)</f>
         <v>5.3058999999999994</v>
       </c>
-      <c r="L5" s="4">
+      <c r="G9" s="4">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="8">
+      <c r="D10" s="5">
+        <v>600.99</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10-(E10*D10)</f>
+        <v>600.99</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11-(E11*D11)</f>
+        <v>7.5649999999999995</v>
+      </c>
+      <c r="G11" s="4">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
         <v>11.27</v>
       </c>
-      <c r="O5" s="10">
+      <c r="E13" s="9">
         <v>0.02</v>
       </c>
-      <c r="P5" s="5">
-        <f>N5-(O5*N5)</f>
+      <c r="F13" s="5">
+        <f>D13-(E13*D13)</f>
         <v>11.044599999999999</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="G13" s="4">
         <v>41</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C7" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="4"/>
+      <c r="C15"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -952,107 +986,83 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{789D7D1D-1A78-481C-9DF2-2295465C5D5A}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{64C48175-47EE-408B-B065-FA9B6328519A}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{82B824F8-C06F-4D4E-AD9D-12AF4B1B0541}"/>
-    <hyperlink ref="R3" r:id="rId4" xr:uid="{7AB694C8-8D53-4DD1-A585-74AD511EE2C9}"/>
-    <hyperlink ref="R4" r:id="rId5" xr:uid="{78861D53-23E1-4960-8374-45CCA96A832D}"/>
-    <hyperlink ref="R5" r:id="rId6" xr:uid="{00B415CC-5C9C-404C-B1CE-7644EF376960}"/>
-    <hyperlink ref="R2" r:id="rId7" xr:uid="{2A205147-F2C2-4819-A69A-FF234A50A8CB}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{78861D53-23E1-4960-8374-45CCA96A832D}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{00B415CC-5C9C-404C-B1CE-7644EF376960}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{2A205147-F2C2-4819-A69A-FF234A50A8CB}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{11D9EDEB-98AC-428E-96BB-6014AF166B5E}"/>
+    <hyperlink ref="H2" r:id="rId8" xr:uid="{4CACCC6E-53A6-4EBC-B2B0-040AC3D20C88}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{CF765351-0799-4AEC-A0D4-283F4FE618A1}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{96B5EC54-1A7E-477D-9A76-7D8CAA5BA4CB}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{8D9A00A6-4915-4856-8343-0E5C58BAED0F}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{274043C3-859A-4BCF-A7B9-521152DE6F29}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{1AB5F218-0AB0-4321-BA1C-7A920DD666FF}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{ECF82DD5-6A53-49B3-9BB4-11C310E0ACC9}"/>
+    <hyperlink ref="B12" r:id="rId15" xr:uid="{69F8DC5E-4D3C-42C4-BBF0-8D6053E4D4D0}"/>
+    <hyperlink ref="H11" r:id="rId16" xr:uid="{7AB694C8-8D53-4DD1-A585-74AD511EE2C9}"/>
+    <hyperlink ref="H3" r:id="rId17" xr:uid="{FAB6F46A-53ED-45F6-BB7D-773869667B29}"/>
+    <hyperlink ref="H7" r:id="rId18" xr:uid="{C2BBFFFD-05B5-4A7F-8CC5-89F1330E668A}"/>
+    <hyperlink ref="H4" r:id="rId19" xr:uid="{23B4179A-33C1-48D2-A77C-122E76D7C36F}"/>
+    <hyperlink ref="H8" r:id="rId20" xr:uid="{5A0DC6A1-6ED6-4031-979F-97A1B83A477D}"/>
+    <hyperlink ref="H5" r:id="rId21" xr:uid="{8A658B90-DD35-46DD-8100-C31703143448}"/>
+    <hyperlink ref="H9" r:id="rId22" xr:uid="{633F1FCE-059B-4D5E-A837-D6E97097AFA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C426B5A-CDEC-4C88-9535-035658D28849}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096EFBA7-BBB5-4EFC-827A-142B7FD87AE8}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.73046875" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" customWidth="1"/>
-    <col min="8" max="8" width="15.06640625" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" customWidth="1"/>
-    <col min="14" max="14" width="13.9296875" customWidth="1"/>
-    <col min="16" max="16" width="11.59765625" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="12"/>
+    <col min="6" max="6" width="9.06640625" style="5"/>
+    <col min="7" max="7" width="9.06640625" style="4"/>
+    <col min="8" max="8" width="25.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
+      <c r="E1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57521F0-35AC-47BD-8B60-5282736EA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA827C6-1203-40F5-9FF8-300EB1CDD384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="3240" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="7665" yWindow="3060" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="Walmart" sheetId="2" r:id="rId2"/>
-    <sheet name="Target" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Amazon" sheetId="1" r:id="rId2"/>
+    <sheet name="Walmart" sheetId="2" r:id="rId3"/>
+    <sheet name="Target" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -470,10 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED089A9-0581-456A-89BE-20FC90845F25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -591,7 +606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90A4268-83BB-4301-A437-8A99F64E16FD}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -682,7 +697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB4556-605C-42A1-AA94-AF1977A4A82E}">
   <dimension ref="A1:L2"/>
   <sheetViews>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08693BA4-552B-46E2-92BC-3ABE98C5ECD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C976097A-9E37-461E-B766-8D23980FB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="8130" yWindow="2580" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,35 +576,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="4"/>
-    <col min="6" max="6" width="11.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="8" width="23.9296875" customWidth="1"/>
-    <col min="9" max="9" width="12.9296875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="8"/>
-    <col min="11" max="11" width="9.06640625" style="5"/>
-    <col min="12" max="12" width="9.06640625" style="4"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="9"/>
-    <col min="16" max="16" width="13.86328125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="8"/>
+    <col min="11" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9" style="9"/>
+    <col min="16" max="16" width="13.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -711,7 +711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -818,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -952,33 +952,51 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14"/>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="9"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16"/>
       <c r="D16" s="5"/>
       <c r="E16" s="9"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17"/>
       <c r="D17" s="5"/>
       <c r="E17" s="9"/>
       <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1019,18 +1037,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.9296875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="12"/>
-    <col min="6" max="6" width="9.06640625" style="5"/>
-    <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="8" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08693BA4-552B-46E2-92BC-3ABE98C5ECD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085A825-3C1E-4C24-B530-B16812BD2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="1567" yWindow="3075" windowWidth="14401" windowHeight="7672" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donation\Desktop\Baraka_H-andAlfaro_G-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\hbksilver-code\RPA\P0\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C976097A-9E37-461E-B766-8D23980FB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B536A4C-EFD2-4FC2-97D5-92236A7ADB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="2580" windowWidth="14565" windowHeight="8310" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
+    <workbookView xWindow="1567" yWindow="3075" windowWidth="14401" windowHeight="7672" xr2:uid="{82A886E4-3165-4763-9A20-41C9FA8D299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,33 +578,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2116C-CC24-4D89-8E1A-2BEB37DADC95}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="37.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
     <col min="10" max="10" width="9" style="8"/>
     <col min="11" max="11" width="9" style="5"/>
     <col min="12" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" style="7" customWidth="1"/>
     <col min="15" max="15" width="9" style="9"/>
-    <col min="16" max="16" width="13.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.86328125" style="5" customWidth="1"/>
     <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -711,7 +711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -738,7 +738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -764,7 +764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -818,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -952,35 +952,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="C14"/>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="C15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="9"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="4"/>
       <c r="C16"/>
       <c r="D16" s="5"/>
       <c r="E16" s="9"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B17" s="4"/>
       <c r="C17"/>
       <c r="D17" s="5"/>
       <c r="E17" s="9"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
@@ -1037,18 +1037,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="12"/>
     <col min="6" max="6" width="9" style="5"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
